--- a/models/regression_model_4m/pycaret_tables.xlsx
+++ b/models/regression_model_4m/pycaret_tables.xlsx
@@ -586,7 +586,7 @@
         <v>0.091</v>
       </c>
       <c r="I2">
-        <v>0.07000000000000001</v>
+        <v>0.074</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -615,7 +615,7 @@
         <v>0.09760000000000001</v>
       </c>
       <c r="I3">
-        <v>0.048</v>
+        <v>0.056</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -644,7 +644,7 @@
         <v>0.1003</v>
       </c>
       <c r="I4">
-        <v>0.08400000000000001</v>
+        <v>0.08599999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -702,7 +702,7 @@
         <v>0.1289</v>
       </c>
       <c r="I6">
-        <v>0.042</v>
+        <v>0.046</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -731,7 +731,7 @@
         <v>0.1578</v>
       </c>
       <c r="I7">
-        <v>1.058</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -760,7 +760,7 @@
         <v>0.1528</v>
       </c>
       <c r="I8">
-        <v>0.016</v>
+        <v>0.018</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -818,7 +818,7 @@
         <v>0.1357</v>
       </c>
       <c r="I10">
-        <v>0.024</v>
+        <v>0.022</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -847,7 +847,7 @@
         <v>0.1652</v>
       </c>
       <c r="I11">
-        <v>0.026</v>
+        <v>0.024</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -876,7 +876,7 @@
         <v>0.1552</v>
       </c>
       <c r="I12">
-        <v>0.52</v>
+        <v>0.524</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -905,7 +905,7 @@
         <v>0.1208</v>
       </c>
       <c r="I13">
-        <v>0.02</v>
+        <v>0.024</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -934,7 +934,7 @@
         <v>0.1587</v>
       </c>
       <c r="I14">
-        <v>0.02</v>
+        <v>0.018</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -963,7 +963,7 @@
         <v>0.1995</v>
       </c>
       <c r="I15">
-        <v>0.018</v>
+        <v>0.016</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -992,7 +992,7 @@
         <v>0.1856</v>
       </c>
       <c r="I16">
-        <v>0.018</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1021,7 +1021,7 @@
         <v>0.307</v>
       </c>
       <c r="I17">
-        <v>0.02</v>
+        <v>0.018</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1188,22 +1188,22 @@
         <v>48</v>
       </c>
       <c r="C2">
-        <v>3.1946</v>
+        <v>1.1033</v>
       </c>
       <c r="D2">
-        <v>19.7815</v>
+        <v>2.9955</v>
       </c>
       <c r="E2">
-        <v>4.4476</v>
+        <v>1.7308</v>
       </c>
       <c r="F2">
-        <v>0.9633</v>
+        <v>0.9955000000000001</v>
       </c>
       <c r="G2">
-        <v>0.0897</v>
+        <v>0.0342</v>
       </c>
       <c r="H2">
-        <v>0.0623</v>
+        <v>0.0192</v>
       </c>
     </row>
   </sheetData>

--- a/models/regression_model_4m/pycaret_tables.xlsx
+++ b/models/regression_model_4m/pycaret_tables.xlsx
@@ -62,39 +62,39 @@
     <t>lightgbm</t>
   </si>
   <si>
+    <t>lr</t>
+  </si>
+  <si>
     <t>ada</t>
   </si>
   <si>
-    <t>lr</t>
-  </si>
-  <si>
     <t>ridge</t>
   </si>
   <si>
+    <t>knn</t>
+  </si>
+  <si>
     <t>br</t>
   </si>
   <si>
-    <t>knn</t>
-  </si>
-  <si>
     <t>huber</t>
   </si>
   <si>
     <t>lasso</t>
   </si>
   <si>
+    <t>en</t>
+  </si>
+  <si>
     <t>dt</t>
   </si>
   <si>
-    <t>en</t>
+    <t>omp</t>
   </si>
   <si>
     <t>par</t>
   </si>
   <si>
-    <t>omp</t>
-  </si>
-  <si>
     <t>llar</t>
   </si>
   <si>
@@ -116,37 +116,37 @@
     <t>Light Gradient Boosting Machine</t>
   </si>
   <si>
+    <t>Linear Regression</t>
+  </si>
+  <si>
     <t>AdaBoost Regressor</t>
   </si>
   <si>
-    <t>Linear Regression</t>
-  </si>
-  <si>
     <t>Ridge Regression</t>
   </si>
   <si>
+    <t>K Neighbors Regressor</t>
+  </si>
+  <si>
     <t>Bayesian Ridge</t>
   </si>
   <si>
-    <t>K Neighbors Regressor</t>
-  </si>
-  <si>
     <t>Huber Regressor</t>
   </si>
   <si>
     <t>Lasso Regression</t>
   </si>
   <si>
+    <t>Elastic Net</t>
+  </si>
+  <si>
     <t>Decision Tree Regressor</t>
   </si>
   <si>
-    <t>Elastic Net</t>
+    <t>Orthogonal Matching Pursuit</t>
   </si>
   <si>
     <t>Passive Aggressive Regressor</t>
-  </si>
-  <si>
-    <t>Orthogonal Matching Pursuit</t>
   </si>
   <si>
     <t>Lasso Least Angle Regression</t>
@@ -568,25 +568,25 @@
         <v>26</v>
       </c>
       <c r="C2">
-        <v>5.0764</v>
+        <v>5.2376</v>
       </c>
       <c r="D2">
-        <v>69.1713</v>
+        <v>63.3901</v>
       </c>
       <c r="E2">
-        <v>8.217700000000001</v>
+        <v>7.8859</v>
       </c>
       <c r="F2">
-        <v>0.8871</v>
+        <v>0.906</v>
       </c>
       <c r="G2">
-        <v>0.1324</v>
+        <v>0.1365</v>
       </c>
       <c r="H2">
-        <v>0.091</v>
+        <v>0.09470000000000001</v>
       </c>
       <c r="I2">
-        <v>0.074</v>
+        <v>0.08599999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -597,25 +597,25 @@
         <v>27</v>
       </c>
       <c r="C3">
-        <v>5.7098</v>
+        <v>6.0441</v>
       </c>
       <c r="D3">
-        <v>78.2122</v>
+        <v>83.8336</v>
       </c>
       <c r="E3">
-        <v>8.693</v>
+        <v>8.9628</v>
       </c>
       <c r="F3">
-        <v>0.8812</v>
+        <v>0.8787</v>
       </c>
       <c r="G3">
-        <v>0.1355</v>
+        <v>0.1461</v>
       </c>
       <c r="H3">
-        <v>0.09760000000000001</v>
+        <v>0.1079</v>
       </c>
       <c r="I3">
-        <v>0.056</v>
+        <v>0.058</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -626,25 +626,25 @@
         <v>28</v>
       </c>
       <c r="C4">
-        <v>5.8484</v>
+        <v>6.237</v>
       </c>
       <c r="D4">
-        <v>88.3284</v>
+        <v>101.0043</v>
       </c>
       <c r="E4">
-        <v>9.1196</v>
+        <v>9.9377</v>
       </c>
       <c r="F4">
-        <v>0.8698</v>
+        <v>0.8538</v>
       </c>
       <c r="G4">
-        <v>0.1401</v>
+        <v>0.1534</v>
       </c>
       <c r="H4">
-        <v>0.1003</v>
+        <v>0.1098</v>
       </c>
       <c r="I4">
-        <v>0.08599999999999999</v>
+        <v>0.106</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -655,25 +655,25 @@
         <v>29</v>
       </c>
       <c r="C5">
-        <v>6.5788</v>
+        <v>6.8086</v>
       </c>
       <c r="D5">
-        <v>97.6035</v>
+        <v>104.4513</v>
       </c>
       <c r="E5">
-        <v>9.738300000000001</v>
+        <v>10.135</v>
       </c>
       <c r="F5">
-        <v>0.8528</v>
+        <v>0.8534</v>
       </c>
       <c r="G5">
-        <v>0.1557</v>
+        <v>0.1627</v>
       </c>
       <c r="H5">
-        <v>0.1175</v>
+        <v>0.1215</v>
       </c>
       <c r="I5">
-        <v>0.032</v>
+        <v>0.038</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -684,25 +684,25 @@
         <v>30</v>
       </c>
       <c r="C6">
-        <v>7.1052</v>
+        <v>7.9278</v>
       </c>
       <c r="D6">
-        <v>107.9361</v>
+        <v>109.7144</v>
       </c>
       <c r="E6">
-        <v>10.2483</v>
+        <v>10.403</v>
       </c>
       <c r="F6">
-        <v>0.8411999999999999</v>
+        <v>0.8401</v>
       </c>
       <c r="G6">
-        <v>0.168</v>
+        <v>0.21</v>
       </c>
       <c r="H6">
-        <v>0.1289</v>
+        <v>0.1553</v>
       </c>
       <c r="I6">
-        <v>0.046</v>
+        <v>1.528</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -713,25 +713,25 @@
         <v>31</v>
       </c>
       <c r="C7">
-        <v>8.195399999999999</v>
+        <v>7.382</v>
       </c>
       <c r="D7">
-        <v>127.73</v>
+        <v>110.2733</v>
       </c>
       <c r="E7">
-        <v>11.1855</v>
+        <v>10.4535</v>
       </c>
       <c r="F7">
-        <v>0.8043</v>
+        <v>0.8401999999999999</v>
       </c>
       <c r="G7">
-        <v>0.2628</v>
+        <v>0.1772</v>
       </c>
       <c r="H7">
-        <v>0.1578</v>
+        <v>0.1384</v>
       </c>
       <c r="I7">
-        <v>1.05</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -742,25 +742,25 @@
         <v>32</v>
       </c>
       <c r="C8">
-        <v>8.257</v>
+        <v>8.298400000000001</v>
       </c>
       <c r="D8">
-        <v>130.6111</v>
+        <v>123.6234</v>
       </c>
       <c r="E8">
-        <v>11.237</v>
+        <v>11.0463</v>
       </c>
       <c r="F8">
-        <v>0.8004</v>
+        <v>0.8204</v>
       </c>
       <c r="G8">
-        <v>0.2026</v>
+        <v>0.1969</v>
       </c>
       <c r="H8">
-        <v>0.1528</v>
+        <v>0.1555</v>
       </c>
       <c r="I8">
-        <v>0.018</v>
+        <v>0.022</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -771,25 +771,25 @@
         <v>33</v>
       </c>
       <c r="C9">
-        <v>8.2408</v>
+        <v>7.2981</v>
       </c>
       <c r="D9">
-        <v>132.883</v>
+        <v>130.0797</v>
       </c>
       <c r="E9">
-        <v>11.3755</v>
+        <v>11.2646</v>
       </c>
       <c r="F9">
-        <v>0.7975</v>
+        <v>0.8058</v>
       </c>
       <c r="G9">
-        <v>0.1895</v>
+        <v>0.184</v>
       </c>
       <c r="H9">
-        <v>0.1507</v>
+        <v>0.1357</v>
       </c>
       <c r="I9">
-        <v>0.018</v>
+        <v>0.026</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -800,22 +800,22 @@
         <v>34</v>
       </c>
       <c r="C10">
-        <v>7.4535</v>
+        <v>8.4436</v>
       </c>
       <c r="D10">
-        <v>133.3213</v>
+        <v>129.5921</v>
       </c>
       <c r="E10">
-        <v>11.3965</v>
+        <v>11.3247</v>
       </c>
       <c r="F10">
-        <v>0.7798</v>
+        <v>0.8126</v>
       </c>
       <c r="G10">
-        <v>0.1804</v>
+        <v>0.1949</v>
       </c>
       <c r="H10">
-        <v>0.1357</v>
+        <v>0.1565</v>
       </c>
       <c r="I10">
         <v>0.022</v>
@@ -829,25 +829,25 @@
         <v>35</v>
       </c>
       <c r="C11">
-        <v>8.5283</v>
+        <v>8.4657</v>
       </c>
       <c r="D11">
-        <v>145.8282</v>
+        <v>142.0902</v>
       </c>
       <c r="E11">
-        <v>11.9309</v>
+        <v>11.8948</v>
       </c>
       <c r="F11">
-        <v>0.7778</v>
+        <v>0.7893</v>
       </c>
       <c r="G11">
-        <v>0.2308</v>
+        <v>0.2188</v>
       </c>
       <c r="H11">
-        <v>0.1652</v>
+        <v>0.1657</v>
       </c>
       <c r="I11">
-        <v>0.024</v>
+        <v>0.034</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -858,25 +858,25 @@
         <v>36</v>
       </c>
       <c r="C12">
-        <v>8.566700000000001</v>
+        <v>9.055899999999999</v>
       </c>
       <c r="D12">
-        <v>153.6124</v>
+        <v>167.7977</v>
       </c>
       <c r="E12">
-        <v>12.2611</v>
+        <v>12.8656</v>
       </c>
       <c r="F12">
-        <v>0.7709</v>
+        <v>0.7619</v>
       </c>
       <c r="G12">
-        <v>0.195</v>
+        <v>0.2088</v>
       </c>
       <c r="H12">
-        <v>0.1552</v>
+        <v>0.167</v>
       </c>
       <c r="I12">
-        <v>0.524</v>
+        <v>0.718</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -887,25 +887,25 @@
         <v>37</v>
       </c>
       <c r="C13">
-        <v>7.564</v>
+        <v>9.1355</v>
       </c>
       <c r="D13">
-        <v>162.9484</v>
+        <v>180.7329</v>
       </c>
       <c r="E13">
-        <v>12.3944</v>
+        <v>13.3478</v>
       </c>
       <c r="F13">
-        <v>0.7418</v>
+        <v>0.7452</v>
       </c>
       <c r="G13">
-        <v>0.1777</v>
+        <v>0.2168</v>
       </c>
       <c r="H13">
-        <v>0.1208</v>
+        <v>0.172</v>
       </c>
       <c r="I13">
-        <v>0.024</v>
+        <v>0.022</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -916,25 +916,25 @@
         <v>38</v>
       </c>
       <c r="C14">
-        <v>8.6134</v>
+        <v>8.244</v>
       </c>
       <c r="D14">
-        <v>166.5397</v>
+        <v>198.4334</v>
       </c>
       <c r="E14">
-        <v>12.782</v>
+        <v>13.6871</v>
       </c>
       <c r="F14">
-        <v>0.7537</v>
+        <v>0.6991000000000001</v>
       </c>
       <c r="G14">
-        <v>0.2019</v>
+        <v>0.2173</v>
       </c>
       <c r="H14">
-        <v>0.1587</v>
+        <v>0.1466</v>
       </c>
       <c r="I14">
-        <v>0.018</v>
+        <v>0.022</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -945,25 +945,25 @@
         <v>39</v>
       </c>
       <c r="C15">
-        <v>10.7516</v>
+        <v>10.003</v>
       </c>
       <c r="D15">
-        <v>214.88</v>
+        <v>227.9906</v>
       </c>
       <c r="E15">
-        <v>13.9611</v>
+        <v>15.0538</v>
       </c>
       <c r="F15">
-        <v>0.7151999999999999</v>
+        <v>0.6627999999999999</v>
       </c>
       <c r="G15">
-        <v>0.2357</v>
+        <v>0.2506</v>
       </c>
       <c r="H15">
-        <v>0.1995</v>
+        <v>0.1974</v>
       </c>
       <c r="I15">
-        <v>0.016</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -974,22 +974,22 @@
         <v>40</v>
       </c>
       <c r="C16">
-        <v>10.1533</v>
+        <v>12.0136</v>
       </c>
       <c r="D16">
-        <v>228.9189</v>
+        <v>245.0043</v>
       </c>
       <c r="E16">
-        <v>14.9937</v>
+        <v>15.6367</v>
       </c>
       <c r="F16">
-        <v>0.6433</v>
+        <v>0.6364</v>
       </c>
       <c r="G16">
-        <v>0.2338</v>
+        <v>0.3664</v>
       </c>
       <c r="H16">
-        <v>0.1856</v>
+        <v>0.242</v>
       </c>
       <c r="I16">
         <v>0.02</v>
@@ -1003,25 +1003,25 @@
         <v>41</v>
       </c>
       <c r="C17">
-        <v>15.0616</v>
+        <v>15.5221</v>
       </c>
       <c r="D17">
-        <v>348.888</v>
+        <v>365.004</v>
       </c>
       <c r="E17">
-        <v>18.2119</v>
+        <v>18.7891</v>
       </c>
       <c r="F17">
-        <v>0.5206</v>
+        <v>0.5168</v>
       </c>
       <c r="G17">
-        <v>0.3202</v>
+        <v>0.3344</v>
       </c>
       <c r="H17">
-        <v>0.307</v>
+        <v>0.3195</v>
       </c>
       <c r="I17">
-        <v>0.018</v>
+        <v>0.024</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1032,25 +1032,25 @@
         <v>42</v>
       </c>
       <c r="C18">
-        <v>22.3945</v>
+        <v>23.2384</v>
       </c>
       <c r="D18">
-        <v>726.5436999999999</v>
+        <v>755.9623</v>
       </c>
       <c r="E18">
-        <v>26.5738</v>
+        <v>27.1992</v>
       </c>
       <c r="F18">
-        <v>-0.0343</v>
+        <v>-0.017</v>
       </c>
       <c r="G18">
-        <v>0.4646</v>
+        <v>0.4772</v>
       </c>
       <c r="H18">
-        <v>0.4751</v>
+        <v>0.4933</v>
       </c>
       <c r="I18">
-        <v>0.016</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1061,25 +1061,25 @@
         <v>43</v>
       </c>
       <c r="C19">
-        <v>56.1587</v>
+        <v>35180.7082</v>
       </c>
       <c r="D19">
-        <v>9523.072700000001</v>
+        <v>9744969817.4907</v>
       </c>
       <c r="E19">
-        <v>71.4723</v>
+        <v>44323.3188</v>
       </c>
       <c r="F19">
-        <v>-9.0007</v>
+        <v>-16694055.2087</v>
       </c>
       <c r="G19">
-        <v>0.8727</v>
+        <v>2.5048</v>
       </c>
       <c r="H19">
-        <v>1.0548</v>
+        <v>716.8161</v>
       </c>
       <c r="I19">
-        <v>0.02</v>
+        <v>0.024</v>
       </c>
     </row>
   </sheetData>
@@ -1126,22 +1126,22 @@
         <v>48</v>
       </c>
       <c r="C2">
-        <v>4.8783</v>
+        <v>5.1236</v>
       </c>
       <c r="D2">
-        <v>51.8757</v>
+        <v>59.4919</v>
       </c>
       <c r="E2">
-        <v>7.2025</v>
+        <v>7.7131</v>
       </c>
       <c r="F2">
-        <v>0.9036999999999999</v>
+        <v>0.8778</v>
       </c>
       <c r="G2">
-        <v>0.1192</v>
+        <v>0.1108</v>
       </c>
       <c r="H2">
-        <v>0.0851</v>
+        <v>0.0838</v>
       </c>
     </row>
   </sheetData>
@@ -1185,25 +1185,25 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C2">
-        <v>1.1033</v>
+        <v>1.8882</v>
       </c>
       <c r="D2">
-        <v>2.9955</v>
+        <v>6.3462</v>
       </c>
       <c r="E2">
-        <v>1.7308</v>
+        <v>2.5192</v>
       </c>
       <c r="F2">
-        <v>0.9955000000000001</v>
+        <v>0.9905</v>
       </c>
       <c r="G2">
-        <v>0.0342</v>
+        <v>0.0503</v>
       </c>
       <c r="H2">
-        <v>0.0192</v>
+        <v>0.0346</v>
       </c>
     </row>
   </sheetData>
@@ -1247,22 +1247,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>4.2365</v>
+        <v>5.797</v>
       </c>
       <c r="C2">
-        <v>43.129</v>
+        <v>64.3253</v>
       </c>
       <c r="D2">
-        <v>6.5673</v>
+        <v>8.020300000000001</v>
       </c>
       <c r="E2">
-        <v>0.9198</v>
+        <v>0.8879</v>
       </c>
       <c r="F2">
-        <v>0.1172</v>
+        <v>0.144</v>
       </c>
       <c r="G2">
-        <v>0.082</v>
+        <v>0.1028</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1270,22 +1270,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>5.1181</v>
+        <v>5.7565</v>
       </c>
       <c r="C3">
-        <v>68.453</v>
+        <v>93.57680000000001</v>
       </c>
       <c r="D3">
-        <v>8.2736</v>
+        <v>9.673500000000001</v>
       </c>
       <c r="E3">
-        <v>0.9219000000000001</v>
+        <v>0.9042</v>
       </c>
       <c r="F3">
-        <v>0.1837</v>
+        <v>0.1382</v>
       </c>
       <c r="G3">
-        <v>0.1177</v>
+        <v>0.0949</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1293,22 +1293,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6.0297</v>
+        <v>5.1026</v>
       </c>
       <c r="C4">
-        <v>110.0405</v>
+        <v>56.3933</v>
       </c>
       <c r="D4">
-        <v>10.49</v>
+        <v>7.5095</v>
       </c>
       <c r="E4">
-        <v>0.8058999999999999</v>
+        <v>0.9034</v>
       </c>
       <c r="F4">
-        <v>0.1447</v>
+        <v>0.173</v>
       </c>
       <c r="G4">
-        <v>0.1001</v>
+        <v>0.1144</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1316,22 +1316,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6.6463</v>
+        <v>6.4726</v>
       </c>
       <c r="C5">
-        <v>83.3708</v>
+        <v>82.13460000000001</v>
       </c>
       <c r="D5">
-        <v>9.130800000000001</v>
+        <v>9.062799999999999</v>
       </c>
       <c r="E5">
-        <v>0.922</v>
+        <v>0.9201</v>
       </c>
       <c r="F5">
-        <v>0.1138</v>
+        <v>0.1264</v>
       </c>
       <c r="G5">
-        <v>0.0968</v>
+        <v>0.09810000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1339,22 +1339,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5.5729</v>
+        <v>6.674</v>
       </c>
       <c r="C6">
-        <v>74.5772</v>
+        <v>119.1414</v>
       </c>
       <c r="D6">
-        <v>8.6358</v>
+        <v>10.9152</v>
       </c>
       <c r="E6">
-        <v>0.8352000000000001</v>
+        <v>0.7815</v>
       </c>
       <c r="F6">
-        <v>0.1397</v>
+        <v>0.1843</v>
       </c>
       <c r="G6">
-        <v>0.0985</v>
+        <v>0.1344</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1362,22 +1362,22 @@
         <v>45</v>
       </c>
       <c r="B7">
-        <v>5.5207</v>
+        <v>5.9605</v>
       </c>
       <c r="C7">
-        <v>75.9141</v>
+        <v>83.1143</v>
       </c>
       <c r="D7">
-        <v>8.6195</v>
+        <v>9.036300000000001</v>
       </c>
       <c r="E7">
-        <v>0.881</v>
+        <v>0.8794</v>
       </c>
       <c r="F7">
-        <v>0.1398</v>
+        <v>0.1532</v>
       </c>
       <c r="G7">
-        <v>0.099</v>
+        <v>0.1089</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1385,22 +1385,22 @@
         <v>46</v>
       </c>
       <c r="B8">
-        <v>0.8173</v>
+        <v>0.5614</v>
       </c>
       <c r="C8">
-        <v>21.6911</v>
+        <v>22.2505</v>
       </c>
       <c r="D8">
-        <v>1.2721</v>
+        <v>1.2083</v>
       </c>
       <c r="E8">
-        <v>0.0502</v>
+        <v>0.05</v>
       </c>
       <c r="F8">
-        <v>0.0251</v>
+        <v>0.0218</v>
       </c>
       <c r="G8">
-        <v>0.0114</v>
+        <v>0.0144</v>
       </c>
     </row>
   </sheetData>
@@ -1444,22 +1444,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>4.5736</v>
+        <v>6.0662</v>
       </c>
       <c r="C2">
-        <v>38.0316</v>
+        <v>76.7641</v>
       </c>
       <c r="D2">
-        <v>6.167</v>
+        <v>8.7615</v>
       </c>
       <c r="E2">
-        <v>0.9292</v>
+        <v>0.8662</v>
       </c>
       <c r="F2">
-        <v>0.1107</v>
+        <v>0.1357</v>
       </c>
       <c r="G2">
-        <v>0.0864</v>
+        <v>0.0973</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1467,22 +1467,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.9246</v>
+        <v>5.1133</v>
       </c>
       <c r="C3">
-        <v>39.4029</v>
+        <v>68.2552</v>
       </c>
       <c r="D3">
-        <v>6.2772</v>
+        <v>8.261699999999999</v>
       </c>
       <c r="E3">
-        <v>0.9550999999999999</v>
+        <v>0.9301</v>
       </c>
       <c r="F3">
-        <v>0.1597</v>
+        <v>0.1279</v>
       </c>
       <c r="G3">
-        <v>0.1004</v>
+        <v>0.0887</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1490,22 +1490,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6.1199</v>
+        <v>5.2601</v>
       </c>
       <c r="C4">
-        <v>106.8847</v>
+        <v>49.7914</v>
       </c>
       <c r="D4">
-        <v>10.3385</v>
+        <v>7.0563</v>
       </c>
       <c r="E4">
-        <v>0.8115</v>
+        <v>0.9147</v>
       </c>
       <c r="F4">
-        <v>0.1482</v>
+        <v>0.1661</v>
       </c>
       <c r="G4">
-        <v>0.1036</v>
+        <v>0.1147</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1513,22 +1513,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6.8129</v>
+        <v>5.708</v>
       </c>
       <c r="C5">
-        <v>98.2533</v>
+        <v>64.7161</v>
       </c>
       <c r="D5">
-        <v>9.9123</v>
+        <v>8.044600000000001</v>
       </c>
       <c r="E5">
-        <v>0.9081</v>
+        <v>0.9371</v>
       </c>
       <c r="F5">
-        <v>0.1233</v>
+        <v>0.1083</v>
       </c>
       <c r="G5">
-        <v>0.0977</v>
+        <v>0.0839</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1536,22 +1536,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6.0018</v>
+        <v>6.2277</v>
       </c>
       <c r="C6">
-        <v>69.7186</v>
+        <v>80.5275</v>
       </c>
       <c r="D6">
-        <v>8.3498</v>
+        <v>8.973699999999999</v>
       </c>
       <c r="E6">
-        <v>0.846</v>
+        <v>0.8522999999999999</v>
       </c>
       <c r="F6">
-        <v>0.1383</v>
+        <v>0.1579</v>
       </c>
       <c r="G6">
-        <v>0.1019</v>
+        <v>0.1194</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1559,22 +1559,22 @@
         <v>45</v>
       </c>
       <c r="B7">
-        <v>5.4866</v>
+        <v>5.6751</v>
       </c>
       <c r="C7">
-        <v>70.45820000000001</v>
+        <v>68.01090000000001</v>
       </c>
       <c r="D7">
-        <v>8.2089</v>
+        <v>8.2196</v>
       </c>
       <c r="E7">
-        <v>0.89</v>
+        <v>0.9001</v>
       </c>
       <c r="F7">
-        <v>0.1361</v>
+        <v>0.1392</v>
       </c>
       <c r="G7">
-        <v>0.098</v>
+        <v>0.1008</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1582,22 +1582,22 @@
         <v>46</v>
       </c>
       <c r="B8">
-        <v>1.0676</v>
+        <v>0.4353</v>
       </c>
       <c r="C8">
-        <v>28.6912</v>
+        <v>10.7345</v>
       </c>
       <c r="D8">
-        <v>1.7526</v>
+        <v>0.6705</v>
       </c>
       <c r="E8">
-        <v>0.0533</v>
+        <v>0.0344</v>
       </c>
       <c r="F8">
-        <v>0.0174</v>
+        <v>0.0208</v>
       </c>
       <c r="G8">
-        <v>0.0061</v>
+        <v>0.014</v>
       </c>
     </row>
   </sheetData>
@@ -1641,22 +1641,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>4.7251</v>
+        <v>6.2047</v>
       </c>
       <c r="C2">
-        <v>58.3097</v>
+        <v>71.88939999999999</v>
       </c>
       <c r="D2">
-        <v>7.6361</v>
+        <v>8.4788</v>
       </c>
       <c r="E2">
-        <v>0.8915</v>
+        <v>0.8747</v>
       </c>
       <c r="F2">
-        <v>0.133</v>
+        <v>0.142</v>
       </c>
       <c r="G2">
-        <v>0.0931</v>
+        <v>0.1086</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1664,22 +1664,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>5.2367</v>
+        <v>5.9287</v>
       </c>
       <c r="C3">
-        <v>71.2927</v>
+        <v>90.9717</v>
       </c>
       <c r="D3">
-        <v>8.4435</v>
+        <v>9.5379</v>
       </c>
       <c r="E3">
-        <v>0.9187</v>
+        <v>0.9068000000000001</v>
       </c>
       <c r="F3">
-        <v>0.1843</v>
+        <v>0.1357</v>
       </c>
       <c r="G3">
-        <v>0.121</v>
+        <v>0.0956</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1687,22 +1687,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5.8596</v>
+        <v>5.2388</v>
       </c>
       <c r="C4">
-        <v>127.8184</v>
+        <v>58.5997</v>
       </c>
       <c r="D4">
-        <v>11.3057</v>
+        <v>7.655</v>
       </c>
       <c r="E4">
-        <v>0.7746</v>
+        <v>0.8996</v>
       </c>
       <c r="F4">
-        <v>0.1526</v>
+        <v>0.1654</v>
       </c>
       <c r="G4">
-        <v>0.0985</v>
+        <v>0.114</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1710,22 +1710,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6.7264</v>
+        <v>6.2396</v>
       </c>
       <c r="C5">
-        <v>86.8415</v>
+        <v>77.31229999999999</v>
       </c>
       <c r="D5">
-        <v>9.318899999999999</v>
+        <v>8.7927</v>
       </c>
       <c r="E5">
-        <v>0.9188</v>
+        <v>0.9248</v>
       </c>
       <c r="F5">
-        <v>0.1202</v>
+        <v>0.1281</v>
       </c>
       <c r="G5">
-        <v>0.1017</v>
+        <v>0.09669999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1733,22 +1733,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5.2754</v>
+        <v>7.2536</v>
       </c>
       <c r="C6">
-        <v>68.43380000000001</v>
+        <v>137.937</v>
       </c>
       <c r="D6">
-        <v>8.272500000000001</v>
+        <v>11.7447</v>
       </c>
       <c r="E6">
-        <v>0.8488</v>
+        <v>0.7471</v>
       </c>
       <c r="F6">
-        <v>0.1342</v>
+        <v>0.1903</v>
       </c>
       <c r="G6">
-        <v>0.0931</v>
+        <v>0.1417</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1756,22 +1756,22 @@
         <v>45</v>
       </c>
       <c r="B7">
-        <v>5.5646</v>
+        <v>6.1731</v>
       </c>
       <c r="C7">
-        <v>82.53919999999999</v>
+        <v>87.342</v>
       </c>
       <c r="D7">
-        <v>8.9953</v>
+        <v>9.2418</v>
       </c>
       <c r="E7">
-        <v>0.8705000000000001</v>
+        <v>0.8706</v>
       </c>
       <c r="F7">
-        <v>0.1449</v>
+        <v>0.1523</v>
       </c>
       <c r="G7">
-        <v>0.1015</v>
+        <v>0.1113</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1779,22 +1779,22 @@
         <v>46</v>
       </c>
       <c r="B8">
-        <v>0.6830000000000001</v>
+        <v>0.6489</v>
       </c>
       <c r="C8">
-        <v>24.4181</v>
+        <v>27.3442</v>
       </c>
       <c r="D8">
-        <v>1.2741</v>
+        <v>1.3895</v>
       </c>
       <c r="E8">
-        <v>0.0543</v>
+        <v>0.0638</v>
       </c>
       <c r="F8">
-        <v>0.0222</v>
+        <v>0.0227</v>
       </c>
       <c r="G8">
-        <v>0.0103</v>
+        <v>0.0167</v>
       </c>
     </row>
   </sheetData>
@@ -1838,22 +1838,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>4.3772</v>
+        <v>6.458</v>
       </c>
       <c r="C2">
-        <v>35.4432</v>
+        <v>73.6037</v>
       </c>
       <c r="D2">
-        <v>5.9534</v>
+        <v>8.5793</v>
       </c>
       <c r="E2">
-        <v>0.9341</v>
+        <v>0.8717</v>
       </c>
       <c r="F2">
-        <v>0.1046</v>
+        <v>0.138</v>
       </c>
       <c r="G2">
-        <v>0.08260000000000001</v>
+        <v>0.1119</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1861,22 +1861,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6.3086</v>
+        <v>6.879</v>
       </c>
       <c r="C3">
-        <v>77.4507</v>
+        <v>104.3058</v>
       </c>
       <c r="D3">
-        <v>8.800599999999999</v>
+        <v>10.213</v>
       </c>
       <c r="E3">
-        <v>0.9117</v>
+        <v>0.8932</v>
       </c>
       <c r="F3">
-        <v>0.1922</v>
+        <v>0.1472</v>
       </c>
       <c r="G3">
-        <v>0.1413</v>
+        <v>0.113</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1884,22 +1884,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5.4458</v>
+        <v>5.456</v>
       </c>
       <c r="C4">
-        <v>87.5705</v>
+        <v>53.8341</v>
       </c>
       <c r="D4">
-        <v>9.357900000000001</v>
+        <v>7.3372</v>
       </c>
       <c r="E4">
-        <v>0.8456</v>
+        <v>0.9078000000000001</v>
       </c>
       <c r="F4">
-        <v>0.1306</v>
+        <v>0.1581</v>
       </c>
       <c r="G4">
-        <v>0.091</v>
+        <v>0.1087</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1907,22 +1907,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>7.4987</v>
+        <v>6.3667</v>
       </c>
       <c r="C5">
-        <v>127.418</v>
+        <v>74.732</v>
       </c>
       <c r="D5">
-        <v>11.288</v>
+        <v>8.6448</v>
       </c>
       <c r="E5">
-        <v>0.8808</v>
+        <v>0.9273</v>
       </c>
       <c r="F5">
-        <v>0.1334</v>
+        <v>0.1385</v>
       </c>
       <c r="G5">
-        <v>0.1042</v>
+        <v>0.1089</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1930,22 +1930,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6.2001</v>
+        <v>6.7612</v>
       </c>
       <c r="C6">
-        <v>78.98650000000001</v>
+        <v>104.3785</v>
       </c>
       <c r="D6">
-        <v>8.8874</v>
+        <v>10.2166</v>
       </c>
       <c r="E6">
-        <v>0.8255</v>
+        <v>0.8086</v>
       </c>
       <c r="F6">
-        <v>0.1357</v>
+        <v>0.1743</v>
       </c>
       <c r="G6">
-        <v>0.103</v>
+        <v>0.132</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1953,22 +1953,22 @@
         <v>45</v>
       </c>
       <c r="B7">
-        <v>5.9661</v>
+        <v>6.3842</v>
       </c>
       <c r="C7">
-        <v>81.3738</v>
+        <v>82.1708</v>
       </c>
       <c r="D7">
-        <v>8.8575</v>
+        <v>8.998200000000001</v>
       </c>
       <c r="E7">
-        <v>0.8794999999999999</v>
+        <v>0.8817</v>
       </c>
       <c r="F7">
-        <v>0.1393</v>
+        <v>0.1512</v>
       </c>
       <c r="G7">
-        <v>0.1044</v>
+        <v>0.1149</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1976,22 +1976,22 @@
         <v>46</v>
       </c>
       <c r="B8">
-        <v>1.0312</v>
+        <v>0.5008</v>
       </c>
       <c r="C8">
-        <v>29.2888</v>
+        <v>19.5696</v>
       </c>
       <c r="D8">
-        <v>1.7085</v>
+        <v>1.0972</v>
       </c>
       <c r="E8">
-        <v>0.0402</v>
+        <v>0.0408</v>
       </c>
       <c r="F8">
-        <v>0.0287</v>
+        <v>0.0137</v>
       </c>
       <c r="G8">
-        <v>0.0201</v>
+        <v>0.008699999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -2035,22 +2035,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>5.6559</v>
+        <v>7.5745</v>
       </c>
       <c r="C2">
-        <v>56.5798</v>
+        <v>75.4689</v>
       </c>
       <c r="D2">
-        <v>7.522</v>
+        <v>8.6873</v>
       </c>
       <c r="E2">
-        <v>0.8947000000000001</v>
+        <v>0.8683999999999999</v>
       </c>
       <c r="F2">
-        <v>0.1335</v>
+        <v>0.1757</v>
       </c>
       <c r="G2">
-        <v>0.1065</v>
+        <v>0.1412</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2058,22 +2058,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>5.5858</v>
+        <v>7.9393</v>
       </c>
       <c r="C3">
-        <v>72.69580000000001</v>
+        <v>106.3694</v>
       </c>
       <c r="D3">
-        <v>8.526199999999999</v>
+        <v>10.3136</v>
       </c>
       <c r="E3">
-        <v>0.9171</v>
+        <v>0.8911</v>
       </c>
       <c r="F3">
-        <v>0.1715</v>
+        <v>0.2276</v>
       </c>
       <c r="G3">
-        <v>0.1215</v>
+        <v>0.156</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2081,22 +2081,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6.4829</v>
+        <v>7.112</v>
       </c>
       <c r="C4">
-        <v>116.2423</v>
+        <v>95.4361</v>
       </c>
       <c r="D4">
-        <v>10.7816</v>
+        <v>9.7691</v>
       </c>
       <c r="E4">
-        <v>0.795</v>
+        <v>0.8365</v>
       </c>
       <c r="F4">
-        <v>0.1443</v>
+        <v>0.218</v>
       </c>
       <c r="G4">
-        <v>0.108</v>
+        <v>0.165</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -2104,22 +2104,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>9.282</v>
+        <v>8.179500000000001</v>
       </c>
       <c r="C5">
-        <v>171.6798</v>
+        <v>118.1436</v>
       </c>
       <c r="D5">
-        <v>13.1027</v>
+        <v>10.8694</v>
       </c>
       <c r="E5">
-        <v>0.8394</v>
+        <v>0.8851</v>
       </c>
       <c r="F5">
-        <v>0.186</v>
+        <v>0.1926</v>
       </c>
       <c r="G5">
-        <v>0.1471</v>
+        <v>0.1391</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -2127,22 +2127,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6.8403</v>
+        <v>8.8339</v>
       </c>
       <c r="C6">
-        <v>85.5121</v>
+        <v>153.154</v>
       </c>
       <c r="D6">
-        <v>9.247299999999999</v>
+        <v>12.3755</v>
       </c>
       <c r="E6">
-        <v>0.8111</v>
+        <v>0.7192</v>
       </c>
       <c r="F6">
-        <v>0.1746</v>
+        <v>0.2359</v>
       </c>
       <c r="G6">
-        <v>0.1284</v>
+        <v>0.1751</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -2150,22 +2150,22 @@
         <v>45</v>
       </c>
       <c r="B7">
-        <v>6.7694</v>
+        <v>7.9278</v>
       </c>
       <c r="C7">
-        <v>100.542</v>
+        <v>109.7144</v>
       </c>
       <c r="D7">
-        <v>9.835900000000001</v>
+        <v>10.403</v>
       </c>
       <c r="E7">
-        <v>0.8515</v>
+        <v>0.8401</v>
       </c>
       <c r="F7">
-        <v>0.162</v>
+        <v>0.21</v>
       </c>
       <c r="G7">
-        <v>0.1223</v>
+        <v>0.1553</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2173,22 +2173,22 @@
         <v>46</v>
       </c>
       <c r="B8">
-        <v>1.3447</v>
+        <v>0.5788</v>
       </c>
       <c r="C8">
-        <v>40.5982</v>
+        <v>25.8684</v>
       </c>
       <c r="D8">
-        <v>1.9484</v>
+        <v>1.2216</v>
       </c>
       <c r="E8">
-        <v>0.0472</v>
+        <v>0.0634</v>
       </c>
       <c r="F8">
-        <v>0.0198</v>
+        <v>0.0225</v>
       </c>
       <c r="G8">
-        <v>0.0149</v>
+        <v>0.0138</v>
       </c>
     </row>
   </sheetData>
@@ -2232,22 +2232,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>4.1615</v>
+        <v>5.8265</v>
       </c>
       <c r="C2">
-        <v>39.6506</v>
+        <v>55.5335</v>
       </c>
       <c r="D2">
-        <v>6.2969</v>
+        <v>7.4521</v>
       </c>
       <c r="E2">
-        <v>0.9262</v>
+        <v>0.9032</v>
       </c>
       <c r="F2">
-        <v>0.1129</v>
+        <v>0.124</v>
       </c>
       <c r="G2">
-        <v>0.08069999999999999</v>
+        <v>0.1001</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2255,22 +2255,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>4.6851</v>
+        <v>5.4731</v>
       </c>
       <c r="C3">
-        <v>54.4131</v>
+        <v>68.43519999999999</v>
       </c>
       <c r="D3">
-        <v>7.3765</v>
+        <v>8.272600000000001</v>
       </c>
       <c r="E3">
-        <v>0.9379</v>
+        <v>0.9298999999999999</v>
       </c>
       <c r="F3">
-        <v>0.1702</v>
+        <v>0.1277</v>
       </c>
       <c r="G3">
-        <v>0.1114</v>
+        <v>0.0946</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2278,22 +2278,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5.4186</v>
+        <v>5.0783</v>
       </c>
       <c r="C4">
-        <v>102.4519</v>
+        <v>50.163</v>
       </c>
       <c r="D4">
-        <v>10.1219</v>
+        <v>7.0826</v>
       </c>
       <c r="E4">
-        <v>0.8193</v>
+        <v>0.9141</v>
       </c>
       <c r="F4">
-        <v>0.1332</v>
+        <v>0.1678</v>
       </c>
       <c r="G4">
-        <v>0.0886</v>
+        <v>0.1145</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -2301,22 +2301,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6.933</v>
+        <v>5.9368</v>
       </c>
       <c r="C5">
-        <v>95.6716</v>
+        <v>67.4256</v>
       </c>
       <c r="D5">
-        <v>9.7812</v>
+        <v>8.2113</v>
       </c>
       <c r="E5">
-        <v>0.9105</v>
+        <v>0.9344</v>
       </c>
       <c r="F5">
-        <v>0.1242</v>
+        <v>0.12</v>
       </c>
       <c r="G5">
-        <v>0.1027</v>
+        <v>0.0931</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -2324,22 +2324,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5.6182</v>
+        <v>6.4537</v>
       </c>
       <c r="C6">
-        <v>63.8049</v>
+        <v>99.05710000000001</v>
       </c>
       <c r="D6">
-        <v>7.9878</v>
+        <v>9.9527</v>
       </c>
       <c r="E6">
-        <v>0.859</v>
+        <v>0.8184</v>
       </c>
       <c r="F6">
-        <v>0.1337</v>
+        <v>0.1689</v>
       </c>
       <c r="G6">
-        <v>0.0998</v>
+        <v>0.1254</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -2347,22 +2347,22 @@
         <v>45</v>
       </c>
       <c r="B7">
-        <v>5.3633</v>
+        <v>5.7537</v>
       </c>
       <c r="C7">
-        <v>71.19840000000001</v>
+        <v>68.1229</v>
       </c>
       <c r="D7">
-        <v>8.312799999999999</v>
+        <v>8.1943</v>
       </c>
       <c r="E7">
-        <v>0.8905999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="F7">
-        <v>0.1348</v>
+        <v>0.1417</v>
       </c>
       <c r="G7">
-        <v>0.09660000000000001</v>
+        <v>0.1055</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2370,22 +2370,22 @@
         <v>46</v>
       </c>
       <c r="B8">
-        <v>0.9419</v>
+        <v>0.4613</v>
       </c>
       <c r="C8">
-        <v>24.1139</v>
+        <v>16.9621</v>
       </c>
       <c r="D8">
-        <v>1.4474</v>
+        <v>0.9885</v>
       </c>
       <c r="E8">
-        <v>0.0447</v>
+        <v>0.0423</v>
       </c>
       <c r="F8">
-        <v>0.0192</v>
+        <v>0.0219</v>
       </c>
       <c r="G8">
-        <v>0.0108</v>
+        <v>0.0125</v>
       </c>
     </row>
   </sheetData>
@@ -2429,22 +2429,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>4.3191</v>
+        <v>5.9609</v>
       </c>
       <c r="C2">
-        <v>41.0019</v>
+        <v>87.9165</v>
       </c>
       <c r="D2">
-        <v>6.4033</v>
+        <v>9.3764</v>
       </c>
       <c r="E2">
-        <v>0.9237</v>
+        <v>0.8467</v>
       </c>
       <c r="F2">
-        <v>0.1081</v>
+        <v>0.1346</v>
       </c>
       <c r="G2">
-        <v>0.07630000000000001</v>
+        <v>0.0936</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2452,22 +2452,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>4.8915</v>
+        <v>4.7131</v>
       </c>
       <c r="C3">
-        <v>62.533</v>
+        <v>53.1077</v>
       </c>
       <c r="D3">
-        <v>7.9078</v>
+        <v>7.2875</v>
       </c>
       <c r="E3">
-        <v>0.9287</v>
+        <v>0.9456</v>
       </c>
       <c r="F3">
-        <v>0.1704</v>
+        <v>0.1186</v>
       </c>
       <c r="G3">
-        <v>0.1083</v>
+        <v>0.0843</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2475,22 +2475,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5.6091</v>
+        <v>4.1868</v>
       </c>
       <c r="C4">
-        <v>101.3199</v>
+        <v>35.2024</v>
       </c>
       <c r="D4">
-        <v>10.0658</v>
+        <v>5.9332</v>
       </c>
       <c r="E4">
-        <v>0.8213</v>
+        <v>0.9397</v>
       </c>
       <c r="F4">
-        <v>0.1368</v>
+        <v>0.1401</v>
       </c>
       <c r="G4">
-        <v>0.0906</v>
+        <v>0.08799999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -2498,22 +2498,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>7.5569</v>
+        <v>5.186</v>
       </c>
       <c r="C5">
-        <v>116.4626</v>
+        <v>52.1767</v>
       </c>
       <c r="D5">
-        <v>10.7918</v>
+        <v>7.2233</v>
       </c>
       <c r="E5">
-        <v>0.891</v>
+        <v>0.9493</v>
       </c>
       <c r="F5">
-        <v>0.132</v>
+        <v>0.108</v>
       </c>
       <c r="G5">
-        <v>0.1076</v>
+        <v>0.0829</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -2521,22 +2521,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>4.6747</v>
+        <v>5.5862</v>
       </c>
       <c r="C6">
-        <v>48.9263</v>
+        <v>78.2788</v>
       </c>
       <c r="D6">
-        <v>6.9947</v>
+        <v>8.8475</v>
       </c>
       <c r="E6">
-        <v>0.8919</v>
+        <v>0.8565</v>
       </c>
       <c r="F6">
-        <v>0.1275</v>
+        <v>0.1566</v>
       </c>
       <c r="G6">
-        <v>0.0844</v>
+        <v>0.1113</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -2544,22 +2544,22 @@
         <v>45</v>
       </c>
       <c r="B7">
-        <v>5.4103</v>
+        <v>5.1266</v>
       </c>
       <c r="C7">
-        <v>74.0488</v>
+        <v>61.3364</v>
       </c>
       <c r="D7">
-        <v>8.432700000000001</v>
+        <v>7.7336</v>
       </c>
       <c r="E7">
-        <v>0.8913</v>
+        <v>0.9076</v>
       </c>
       <c r="F7">
-        <v>0.1349</v>
+        <v>0.1316</v>
       </c>
       <c r="G7">
-        <v>0.0934</v>
+        <v>0.092</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2567,22 +2567,22 @@
         <v>46</v>
       </c>
       <c r="B8">
-        <v>1.1531</v>
+        <v>0.6269</v>
       </c>
       <c r="C8">
-        <v>29.6597</v>
+        <v>19.1214</v>
       </c>
       <c r="D8">
-        <v>1.7143</v>
+        <v>1.2362</v>
       </c>
       <c r="E8">
-        <v>0.0383</v>
+        <v>0.0459</v>
       </c>
       <c r="F8">
-        <v>0.0202</v>
+        <v>0.0169</v>
       </c>
       <c r="G8">
-        <v>0.0127</v>
+        <v>0.0103</v>
       </c>
     </row>
   </sheetData>
@@ -2629,22 +2629,22 @@
         <v>47</v>
       </c>
       <c r="C2">
-        <v>5.4554</v>
+        <v>5.2263</v>
       </c>
       <c r="D2">
-        <v>59.6312</v>
+        <v>48.5794</v>
       </c>
       <c r="E2">
-        <v>7.7221</v>
+        <v>6.9699</v>
       </c>
       <c r="F2">
-        <v>0.8893</v>
+        <v>0.9002</v>
       </c>
       <c r="G2">
-        <v>0.1263</v>
+        <v>0.1103</v>
       </c>
       <c r="H2">
-        <v>0.0941</v>
+        <v>0.089</v>
       </c>
     </row>
   </sheetData>
